--- a/membermvc/WebContent/doc/project.xlsx
+++ b/membermvc/WebContent/doc/project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Javadata\workspace\web\membermvc\WebContent\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51FD35DC-7C14-4F3F-B002-36929BEA98CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E8CE38-819F-4B34-BED3-EB2347750978}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12585" yWindow="75" windowWidth="12630" windowHeight="14625" xr2:uid="{9473A146-48C8-4051-A329-3CB57C6191B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9473A146-48C8-4051-A329-3CB57C6191B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>membermvc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,18 @@
   </si>
   <si>
     <t>membercontroller.java (servlet : /user)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- com.kitri.controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller.java(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,7 +596,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H40:H41"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -706,6 +718,17 @@
         <v>43</v>
       </c>
     </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>2</v>
